--- a/datasets_single/kpcb_cipro_powder.xlsx
+++ b/datasets_single/kpcb_cipro_powder.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93F750FE-7D10-0641-90B3-5E9E8707348D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848DAF95-3373-8645-BBFC-F57828146526}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="4120" windowWidth="25440" windowHeight="17440" xr2:uid="{BF8E1773-DC40-324A-A0B9-6486B0463BF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,9 +109,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +149,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -255,7 +255,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -405,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1684F0DF-B33C-1E4D-86FB-EE1797BEB232}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D2" sqref="D2:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,7 +430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -446,8 +446,12 @@
       <c r="E2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>E2/0.38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -463,8 +467,12 @@
       <c r="E3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <f t="shared" ref="F3:F16" si="0">E3/0.38</f>
+        <v>26.315789473684209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -480,8 +488,12 @@
       <c r="E4">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>52.631578947368418</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -497,8 +509,12 @@
       <c r="E5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>105.26315789473684</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -514,8 +530,12 @@
       <c r="E6">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>210.52631578947367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2</v>
       </c>
@@ -531,8 +551,12 @@
       <c r="E7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
@@ -548,8 +572,12 @@
       <c r="E8">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>6.5789473684210522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
@@ -565,8 +593,12 @@
       <c r="E9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>13.157894736842104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -582,8 +614,12 @@
       <c r="E10">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>26.315789473684209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -599,8 +635,12 @@
       <c r="E11">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>52.631578947368418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -616,8 +656,12 @@
       <c r="E12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -633,8 +677,12 @@
       <c r="E13">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>15.789473684210526</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -650,8 +698,12 @@
       <c r="E14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>21.05263157894737</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -667,8 +719,12 @@
       <c r="E15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>31.578947368421051</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -683,6 +739,10 @@
       </c>
       <c r="E16">
         <v>15</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>39.473684210526315</v>
       </c>
     </row>
   </sheetData>
